--- a/biology/Histoire de la zoologie et de la botanique/William_Lucas_Distant/William_Lucas_Distant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Lucas_Distant/William_Lucas_Distant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Lucas Distant (12 novembre 1845 Rotherhithe – 4 février 1922 (à 76 ans) Wanstead) est un entomologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Lucas Distant, né à Rotherhithe, dans le sud de Londres est le fils du capitaine Alexander Distant. En 1867 il part avec son père en Malaisie. C'est l'occasion pour lui de décrire les papillons de ce pays et il publie Rhopalocera Malayana (1882–1886).
 Il se marie avec Edith Blanche de Rubain en 1890.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhynchota :The Fauna of British India, Including Ceylon and Burma
 Insecta transvaaliensia : A contribution to the entomology of South Africa
@@ -560,7 +576,7 @@
 Rhynchota from New Caledonia and the surrounding islands
 A synonymic catalogue of Homoptera
 Homoptera. Fam. Cicadidae
-Scientific results of the second Yarkand mission : based on the collections and notes of the late Ferdinand Stoliczka : Rhynchota[1].</t>
+Scientific results of the second Yarkand mission : based on the collections and notes of the late Ferdinand Stoliczka : Rhynchota.</t>
         </is>
       </c>
     </row>
